--- a/_site/stem majors 2020- by country.xlsx
+++ b/_site/stem majors 2020- by country.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>Country_stem</t>
   </si>
@@ -19,10 +19,13 @@
     <t>Share_of_Graduates</t>
   </si>
   <si>
-    <t>Total_Graduates</t>
+    <t>Tot_Graduates_in_STEM</t>
   </si>
   <si>
     <t>Continents_stem</t>
+  </si>
+  <si>
+    <t>Total_Graduates_2019</t>
   </si>
   <si>
     <t>Tunisia</t>
@@ -71,13 +74,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
       <color theme="1"/>
       <name val="Arial"/>
@@ -97,20 +99,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="10" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -328,145 +324,178 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="4" max="4" width="18.0"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0.434</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43.4</v>
+      </c>
+      <c r="C2" s="1">
         <v>24910.0</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="2">
+        <v>57396.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.356</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="1">
+        <v>35.6</v>
+      </c>
+      <c r="C3" s="1">
         <v>101819.0</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
+      <c r="D3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1">
+        <v>286009.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1">
+        <v>34.9</v>
+      </c>
+      <c r="C4" s="1">
+        <v>22794.0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="1">
+        <v>65312.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>31.7</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2675880.0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8441262.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="1">
+        <v>30.0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>497243.0</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
-        <v>0.349</v>
-      </c>
-      <c r="C4" s="2">
-        <v>22794.0</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+      <c r="E6" s="1">
+        <v>1657477.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1">
+        <v>26.3</v>
+      </c>
+      <c r="C7" s="1">
+        <v>198381.0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1">
+        <v>754300.0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="1">
+        <v>17.9</v>
+      </c>
+      <c r="C8" s="1">
+        <v>698734.0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3903542.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1">
+        <v>17.9</v>
+      </c>
+      <c r="C9" s="1">
+        <v>227343.0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1270073.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>46.13</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4320648.0</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="4">
-        <v>0.317</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2675880.0</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="4">
-        <v>0.3</v>
-      </c>
-      <c r="C6" s="2">
-        <v>497243.0</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4">
-        <v>0.263</v>
-      </c>
-      <c r="C7" s="2">
-        <v>198381.0</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.179</v>
-      </c>
-      <c r="C8" s="2">
-        <v>698734.0</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.179</v>
-      </c>
-      <c r="C9" s="2">
-        <v>227343.0</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="3">
-        <v>0.4613</v>
-      </c>
-      <c r="C10" s="2">
-        <v>4320648.0</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>9</v>
+      <c r="E10" s="1">
+        <v>9366243.0</v>
       </c>
     </row>
   </sheetData>
